--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2105.707937</v>
+        <v>0.102351</v>
       </c>
       <c r="H2">
-        <v>6317.123811</v>
+        <v>0.307053</v>
       </c>
       <c r="I2">
-        <v>0.9998149610961508</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="J2">
-        <v>0.9998149610961509</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.59666833333334</v>
+        <v>1.041066666666667</v>
       </c>
       <c r="N2">
-        <v>91.79000500000001</v>
+        <v>3.1232</v>
       </c>
       <c r="O2">
-        <v>0.6810423932358152</v>
+        <v>0.06773090411171609</v>
       </c>
       <c r="P2">
-        <v>0.6810423932358152</v>
+        <v>0.06773090411171608</v>
       </c>
       <c r="Q2">
-        <v>64427.64735525657</v>
+        <v>0.1065542144</v>
       </c>
       <c r="R2">
-        <v>579848.8261973092</v>
+        <v>0.9589879296</v>
       </c>
       <c r="S2">
-        <v>0.6809163738978959</v>
+        <v>0.01408834629596382</v>
       </c>
       <c r="T2">
-        <v>0.6809163738978961</v>
+        <v>0.01408834629596382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2105.707937</v>
+        <v>0.102351</v>
       </c>
       <c r="H3">
-        <v>6317.123811</v>
+        <v>0.307053</v>
       </c>
       <c r="I3">
-        <v>0.9998149610961508</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="J3">
-        <v>0.9998149610961509</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.745649666666668</v>
+        <v>7.745649666666666</v>
       </c>
       <c r="N3">
         <v>23.236949</v>
       </c>
       <c r="O3">
-        <v>0.1724081762328979</v>
+        <v>0.5039253216469766</v>
       </c>
       <c r="P3">
-        <v>0.1724081762328979</v>
+        <v>0.5039253216469765</v>
       </c>
       <c r="Q3">
-        <v>16310.07598032141</v>
+        <v>0.792774989033</v>
       </c>
       <c r="R3">
-        <v>146790.6838228927</v>
+        <v>7.134974901297</v>
       </c>
       <c r="S3">
-        <v>0.1723762740129532</v>
+        <v>0.1048188346483255</v>
       </c>
       <c r="T3">
-        <v>0.1723762740129532</v>
+        <v>0.1048188346483255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2105.707937</v>
+        <v>0.102351</v>
       </c>
       <c r="H4">
-        <v>6317.123811</v>
+        <v>0.307053</v>
       </c>
       <c r="I4">
-        <v>0.9998149610961508</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="J4">
-        <v>0.9998149610961509</v>
+        <v>0.2080046986044413</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.583913666666668</v>
+        <v>6.583913666666667</v>
       </c>
       <c r="N4">
         <v>19.751741</v>
       </c>
       <c r="O4">
-        <v>0.1465494305312869</v>
+        <v>0.4283437742413074</v>
       </c>
       <c r="P4">
-        <v>0.1465494305312869</v>
+        <v>0.4283437742413074</v>
       </c>
       <c r="Q4">
-        <v>13863.79926442277</v>
+        <v>0.673870147697</v>
       </c>
       <c r="R4">
-        <v>124774.193379805</v>
+        <v>6.064831329273</v>
       </c>
       <c r="S4">
-        <v>0.1465223131853016</v>
+        <v>0.08909751766015202</v>
       </c>
       <c r="T4">
-        <v>0.1465223131853016</v>
+        <v>0.08909751766015199</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.057264</v>
       </c>
       <c r="I5">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="J5">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.59666833333334</v>
+        <v>1.041066666666667</v>
       </c>
       <c r="N5">
-        <v>91.79000500000001</v>
+        <v>3.1232</v>
       </c>
       <c r="O5">
-        <v>0.6810423932358152</v>
+        <v>0.06773090411171609</v>
       </c>
       <c r="P5">
-        <v>0.6810423932358152</v>
+        <v>0.06773090411171608</v>
       </c>
       <c r="Q5">
-        <v>10.78291864959111</v>
+        <v>0.3668941027555555</v>
       </c>
       <c r="R5">
-        <v>97.04626784632001</v>
+        <v>3.3020469248</v>
       </c>
       <c r="S5">
-        <v>0.0001139614151426333</v>
+        <v>0.04850987079838299</v>
       </c>
       <c r="T5">
-        <v>0.0001139614151426334</v>
+        <v>0.04850987079838298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.057264</v>
       </c>
       <c r="I6">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="J6">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.745649666666668</v>
+        <v>7.745649666666666</v>
       </c>
       <c r="N6">
         <v>23.236949</v>
       </c>
       <c r="O6">
-        <v>0.1724081762328979</v>
+        <v>0.5039253216469766</v>
       </c>
       <c r="P6">
-        <v>0.1724081762328979</v>
+        <v>0.5039253216469765</v>
       </c>
       <c r="Q6">
-        <v>2.729732183059556</v>
+        <v>2.729732183059555</v>
       </c>
       <c r="R6">
         <v>24.567589647536</v>
       </c>
       <c r="S6">
-        <v>2.884971617157226E-05</v>
+        <v>0.360918735187825</v>
       </c>
       <c r="T6">
-        <v>2.884971617157226E-05</v>
+        <v>0.3609187351878249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.057264</v>
       </c>
       <c r="I7">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="J7">
-        <v>0.0001673338051705887</v>
+        <v>0.7162147240552154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.583913666666668</v>
+        <v>6.583913666666667</v>
       </c>
       <c r="N7">
         <v>19.751741</v>
       </c>
       <c r="O7">
-        <v>0.1465494305312869</v>
+        <v>0.4283437742413074</v>
       </c>
       <c r="P7">
-        <v>0.1465494305312869</v>
+        <v>0.4283437742413074</v>
       </c>
       <c r="Q7">
-        <v>2.320311632958223</v>
+        <v>2.320311632958222</v>
       </c>
       <c r="R7">
         <v>20.882804696624</v>
       </c>
       <c r="S7">
-        <v>2.452267385638307E-05</v>
+        <v>0.3067861180690075</v>
       </c>
       <c r="T7">
-        <v>2.452267385638308E-05</v>
+        <v>0.3067861180690074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03728866666666667</v>
+        <v>0.03728866666666666</v>
       </c>
       <c r="H8">
         <v>0.111866</v>
       </c>
       <c r="I8">
-        <v>1.770509867848813E-05</v>
+        <v>0.07578057734034331</v>
       </c>
       <c r="J8">
-        <v>1.770509867848813E-05</v>
+        <v>0.0757805773403433</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.59666833333334</v>
+        <v>1.041066666666667</v>
       </c>
       <c r="N8">
-        <v>91.79000500000001</v>
+        <v>3.1232</v>
       </c>
       <c r="O8">
-        <v>0.6810423932358152</v>
+        <v>0.06773090411171609</v>
       </c>
       <c r="P8">
-        <v>0.6810423932358152</v>
+        <v>0.06773090411171608</v>
       </c>
       <c r="Q8">
-        <v>1.140908966592223</v>
+        <v>0.0388199879111111</v>
       </c>
       <c r="R8">
-        <v>10.26818069933</v>
+        <v>0.3493798912</v>
       </c>
       <c r="S8">
-        <v>1.205792277647383E-05</v>
+        <v>0.005132687017369278</v>
       </c>
       <c r="T8">
-        <v>1.205792277647383E-05</v>
+        <v>0.005132687017369276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03728866666666667</v>
+        <v>0.03728866666666666</v>
       </c>
       <c r="H9">
         <v>0.111866</v>
       </c>
       <c r="I9">
-        <v>1.770509867848813E-05</v>
+        <v>0.07578057734034331</v>
       </c>
       <c r="J9">
-        <v>1.770509867848813E-05</v>
+        <v>0.0757805773403433</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.745649666666668</v>
+        <v>7.745649666666666</v>
       </c>
       <c r="N9">
         <v>23.236949</v>
       </c>
       <c r="O9">
-        <v>0.1724081762328979</v>
+        <v>0.5039253216469766</v>
       </c>
       <c r="P9">
-        <v>0.1724081762328979</v>
+        <v>0.5039253216469765</v>
       </c>
       <c r="Q9">
-        <v>0.2888249485371112</v>
+        <v>0.288824948537111</v>
       </c>
       <c r="R9">
         <v>2.599424536834</v>
       </c>
       <c r="S9">
-        <v>3.05250377318163E-06</v>
+        <v>0.03818775181082609</v>
       </c>
       <c r="T9">
-        <v>3.05250377318163E-06</v>
+        <v>0.03818775181082607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03728866666666667</v>
+        <v>0.03728866666666666</v>
       </c>
       <c r="H10">
         <v>0.111866</v>
       </c>
       <c r="I10">
-        <v>1.770509867848813E-05</v>
+        <v>0.07578057734034331</v>
       </c>
       <c r="J10">
-        <v>1.770509867848813E-05</v>
+        <v>0.0757805773403433</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.583913666666668</v>
+        <v>6.583913666666667</v>
       </c>
       <c r="N10">
         <v>19.751741</v>
       </c>
       <c r="O10">
-        <v>0.1465494305312869</v>
+        <v>0.4283437742413074</v>
       </c>
       <c r="P10">
-        <v>0.1465494305312869</v>
+        <v>0.4283437742413074</v>
       </c>
       <c r="Q10">
-        <v>0.2455053620784445</v>
+        <v>0.2455053620784444</v>
       </c>
       <c r="R10">
         <v>2.209548258706</v>
       </c>
       <c r="S10">
-        <v>2.594672128832675E-06</v>
+        <v>0.03246013851214796</v>
       </c>
       <c r="T10">
-        <v>2.594672128832675E-06</v>
+        <v>0.03246013851214794</v>
       </c>
     </row>
   </sheetData>
